--- a/checkin.xlsx
+++ b/checkin.xlsx
@@ -97,6 +97,27 @@
   </si>
   <si>
     <t xml:space="preserve">Aula 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2024, 18:06:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2024, 18:07:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAUCIO COSTA DE OLIVEIRA TESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2024, 18:09:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nen</t>
   </si>
 </sst>
 </file>
@@ -552,8 +573,8 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -563,6 +584,66 @@
       </c>
       <c r="F5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
